--- a/data/financial_statements/sofp/HPE.xlsx
+++ b/data/financial_statements/sofp/HPE.xlsx
@@ -14,9 +14,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -146,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -201,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -511,129 +607,129 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41578</v>
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B2">
-        <v>4763000000</v>
+        <v>4163000000</v>
       </c>
       <c r="C2">
-        <v>4449000000</v>
+        <v>3762000000</v>
       </c>
       <c r="D2">
-        <v>3548000000</v>
+        <v>3027000000</v>
       </c>
       <c r="E2">
-        <v>4276000000</v>
+        <v>3861000000</v>
       </c>
       <c r="F2">
-        <v>4332000000</v>
+        <v>3996000000</v>
       </c>
       <c r="G2">
         <v>5293000000</v>
@@ -715,8 +811,8 @@
       </c>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B3">
         <v>7623000000</v>
@@ -813,8 +909,8 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
         <v>5161000000</v>
@@ -911,23 +1007,23 @@
       </c>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>2883000000</v>
+        <v>3559000000</v>
       </c>
       <c r="C5">
-        <v>2472000000</v>
+        <v>3231000000</v>
       </c>
       <c r="D5">
-        <v>2456000000</v>
+        <v>3046000000</v>
       </c>
       <c r="E5">
-        <v>2431000000</v>
+        <v>2913000000</v>
       </c>
       <c r="F5">
-        <v>2060000000</v>
+        <v>2460000000</v>
       </c>
       <c r="G5">
         <v>2399000000</v>
@@ -1009,23 +1105,23 @@
       </c>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>20430000000</v>
+        <v>20506000000</v>
       </c>
       <c r="C6">
-        <v>19449000000</v>
+        <v>19521000000</v>
       </c>
       <c r="D6">
-        <v>18103000000</v>
+        <v>18172000000</v>
       </c>
       <c r="E6">
-        <v>19275000000</v>
+        <v>19342000000</v>
       </c>
       <c r="F6">
-        <v>18814000000</v>
+        <v>18878000000</v>
       </c>
       <c r="G6">
         <v>18745000000</v>
@@ -1107,11 +1203,11 @@
       </c>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B7">
-        <v>6638000000</v>
+        <v>5784000000</v>
       </c>
       <c r="C7">
         <v>5626000000</v>
@@ -1123,7 +1219,7 @@
         <v>5498000000</v>
       </c>
       <c r="F7">
-        <v>6497000000</v>
+        <v>5613000000</v>
       </c>
       <c r="G7">
         <v>5510000000</v>
@@ -1205,23 +1301,23 @@
       </c>
     </row>
     <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>2659000000</v>
+        <v>2160000000</v>
       </c>
       <c r="C8">
-        <v>2704000000</v>
+        <v>2267000000</v>
       </c>
       <c r="D8">
-        <v>2626000000</v>
+        <v>2262000000</v>
       </c>
       <c r="E8">
-        <v>2576000000</v>
+        <v>2250000000</v>
       </c>
       <c r="F8">
-        <v>2668000000</v>
+        <v>2210000000</v>
       </c>
       <c r="G8">
         <v>2286000000</v>
@@ -1288,8 +1384,8 @@
       </c>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B9">
         <v>10537000000</v>
@@ -1380,8 +1476,8 @@
       </c>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B10">
         <v>18136000000</v>
@@ -1487,8 +1583,8 @@
       </c>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B11">
         <v>2621000000</v>
@@ -1534,8 +1630,8 @@
       </c>
     </row>
     <row r="12" spans="1:35">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B12">
         <v>36617000000</v>
@@ -1632,8 +1728,8 @@
       </c>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B13">
         <v>57123000000</v>
@@ -1739,8 +1835,8 @@
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B14">
         <v>4612000000</v>
@@ -1837,8 +1933,8 @@
       </c>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B15">
         <v>8717000000</v>
@@ -1935,8 +2031,8 @@
       </c>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B16">
         <v>192000000</v>
@@ -2033,8 +2129,8 @@
       </c>
     </row>
     <row r="17" spans="1:35">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B17">
         <v>4780000000</v>
@@ -2074,8 +2170,8 @@
       </c>
     </row>
     <row r="18" spans="1:35">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2094,8 +2190,8 @@
       </c>
     </row>
     <row r="19" spans="1:35">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B19">
         <v>176000000</v>
@@ -2201,8 +2297,8 @@
       </c>
     </row>
     <row r="20" spans="1:35">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B20">
         <v>3451000000</v>
@@ -2293,23 +2389,23 @@
       </c>
     </row>
     <row r="21" spans="1:35">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>9501000000</v>
+        <v>1401000000</v>
       </c>
       <c r="C21">
-        <v>9069000000</v>
+        <v>1240000000</v>
       </c>
       <c r="D21">
-        <v>8871000000</v>
+        <v>1198000000</v>
       </c>
       <c r="E21">
-        <v>8644000000</v>
+        <v>1160000000</v>
       </c>
       <c r="F21">
-        <v>9770000000</v>
+        <v>1778000000</v>
       </c>
       <c r="G21">
         <v>1585000000</v>
@@ -2391,8 +2487,8 @@
       </c>
     </row>
     <row r="22" spans="1:35">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B22">
         <v>23174000000</v>
@@ -2489,23 +2585,23 @@
       </c>
     </row>
     <row r="23" spans="1:35">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B23">
-        <v>8704000000</v>
+        <v>7853000000</v>
       </c>
       <c r="C23">
-        <v>11963000000</v>
+        <v>9137000000</v>
       </c>
       <c r="D23">
-        <v>11253000000</v>
+        <v>8905000000</v>
       </c>
       <c r="E23">
-        <v>12201000000</v>
+        <v>10277000000</v>
       </c>
       <c r="F23">
-        <v>10834000000</v>
+        <v>9896000000</v>
       </c>
       <c r="G23">
         <v>12489000000</v>
@@ -2587,8 +2683,8 @@
       </c>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B24">
         <v>2955000000</v>
@@ -2616,8 +2712,8 @@
       </c>
     </row>
     <row r="25" spans="1:35">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B25">
         <v>-1807000000</v>
@@ -2657,8 +2753,8 @@
       </c>
     </row>
     <row r="26" spans="1:35">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -2677,23 +2773,23 @@
       </c>
     </row>
     <row r="27" spans="1:35">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B27">
-        <v>2061000000</v>
+        <v>6187000000</v>
       </c>
       <c r="C27">
-        <v>3277000000</v>
+        <v>6575000000</v>
       </c>
       <c r="D27">
-        <v>3839000000</v>
+        <v>6647000000</v>
       </c>
       <c r="E27">
-        <v>4336000000</v>
+        <v>6758000000</v>
       </c>
       <c r="F27">
-        <v>2695000000</v>
+        <v>7099000000</v>
       </c>
       <c r="G27">
         <v>7234000000</v>
@@ -2775,8 +2871,8 @@
       </c>
     </row>
     <row r="28" spans="1:35">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B28">
         <v>14040000000</v>
@@ -2873,8 +2969,8 @@
       </c>
     </row>
     <row r="29" spans="1:35">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B29">
         <v>37214000000</v>
@@ -2980,8 +3076,8 @@
       </c>
     </row>
     <row r="30" spans="1:35">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B30">
         <v>28299000000</v>
@@ -3084,8 +3180,8 @@
       </c>
     </row>
     <row r="31" spans="1:35">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -3104,8 +3200,8 @@
       </c>
     </row>
     <row r="32" spans="1:35">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B32">
         <v>13000000</v>
@@ -3208,8 +3304,8 @@
       </c>
     </row>
     <row r="33" spans="1:35">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B33">
         <v>-5350000000</v>
@@ -3297,8 +3393,8 @@
       </c>
     </row>
     <row r="34" spans="1:35">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -3317,8 +3413,8 @@
       </c>
     </row>
     <row r="35" spans="1:35">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="AD35">
         <v>38550000000</v>
@@ -3340,23 +3436,23 @@
       </c>
     </row>
     <row r="36" spans="1:35">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B36">
-        <v>19864000000</v>
+        <v>19909000000</v>
       </c>
       <c r="C36">
-        <v>20611000000</v>
+        <v>20664000000</v>
       </c>
       <c r="D36">
-        <v>20532000000</v>
+        <v>20582000000</v>
       </c>
       <c r="E36">
-        <v>20318000000</v>
+        <v>20365000000</v>
       </c>
       <c r="F36">
-        <v>19971000000</v>
+        <v>20017000000</v>
       </c>
       <c r="G36">
         <v>17073000000</v>
@@ -3438,23 +3534,23 @@
       </c>
     </row>
     <row r="37" spans="1:35">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>19864000000</v>
+        <v>19909000000</v>
       </c>
       <c r="C37">
-        <v>20611000000</v>
+        <v>20664000000</v>
       </c>
       <c r="D37">
-        <v>20532000000</v>
+        <v>20582000000</v>
       </c>
       <c r="E37">
-        <v>20318000000</v>
+        <v>20365000000</v>
       </c>
       <c r="F37">
-        <v>19971000000</v>
+        <v>20017000000</v>
       </c>
       <c r="G37">
         <v>17073000000</v>
@@ -3545,8 +3641,8 @@
       </c>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B38">
         <v>57123000000</v>
@@ -3652,8 +3748,8 @@
       </c>
     </row>
     <row r="39" spans="1:35">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B39">
         <v>1281000000</v>
@@ -3744,8 +3840,8 @@
       </c>
     </row>
     <row r="40" spans="1:35">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B40">
         <v>1773000000</v>
@@ -3842,23 +3938,23 @@
       </c>
     </row>
     <row r="41" spans="1:35">
-      <c r="A41" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B41">
-        <v>8721000000</v>
+        <v>8470000000</v>
       </c>
       <c r="C41">
-        <v>12741000000</v>
+        <v>10602000000</v>
       </c>
       <c r="D41">
-        <v>13200000000</v>
+        <v>11373000000</v>
       </c>
       <c r="E41">
-        <v>13039000000</v>
+        <v>11530000000</v>
       </c>
       <c r="F41">
-        <v>10246000000</v>
+        <v>9644000000</v>
       </c>
       <c r="G41">
         <v>11442000000</v>
@@ -3940,23 +4036,23 @@
       </c>
     </row>
     <row r="42" spans="1:35">
-      <c r="A42" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B42">
-        <v>13484000000</v>
+        <v>12633000000</v>
       </c>
       <c r="C42">
-        <v>17190000000</v>
+        <v>14364000000</v>
       </c>
       <c r="D42">
-        <v>16748000000</v>
+        <v>14400000000</v>
       </c>
       <c r="E42">
-        <v>17315000000</v>
+        <v>15391000000</v>
       </c>
       <c r="F42">
-        <v>14578000000</v>
+        <v>13640000000</v>
       </c>
       <c r="G42">
         <v>16735000000</v>
